--- a/week-1/Solutions/1-2-A-basics-formulas-functions/nyc-population-demo-solutions.xlsx
+++ b/week-1/Solutions/1-2-A-basics-formulas-functions/nyc-population-demo-solutions.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\Week 1\day-4-basics-of-formulas-and-functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-2-A-basics-formulas-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="start" sheetId="2" r:id="rId1"/>
+    <sheet name="finish" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Manhattan</t>
   </si>
@@ -366,10 +367,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1800</v>
+      </c>
+      <c r="B2" s="1">
+        <v>60515</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5740</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6642</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1755</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4563</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM(B2:F2)</f>
+        <v>79215</v>
+      </c>
+      <c r="H2" s="1">
+        <f>MAX(B2:F2)</f>
+        <v>60515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1810</v>
+      </c>
+      <c r="B3" s="1">
+        <v>96373</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8303</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7444</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2267</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5347</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G23" si="0">SUM(B3:F3)</f>
+        <v>119734</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H23" si="1">MAX(B3:F3)</f>
+        <v>96373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1820</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123706</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11187</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8246</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2782</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6135</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>152056</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>123706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1830</v>
+      </c>
+      <c r="B5" s="1">
+        <v>202589</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20535</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9049</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3023</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7082</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>242278</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>202589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1840</v>
+      </c>
+      <c r="B6" s="1">
+        <v>312710</v>
+      </c>
+      <c r="C6" s="1">
+        <v>47613</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14480</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5346</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10965</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>391114</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>312710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1850</v>
+      </c>
+      <c r="B7" s="1">
+        <v>515547</v>
+      </c>
+      <c r="C7" s="1">
+        <v>138882</v>
+      </c>
+      <c r="D7" s="1">
+        <v>18593</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8032</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15061</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>696115</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>515547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1860</v>
+      </c>
+      <c r="B8" s="1">
+        <v>813669</v>
+      </c>
+      <c r="C8" s="1">
+        <v>279122</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32903</v>
+      </c>
+      <c r="E8" s="1">
+        <v>23593</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25492</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1174779</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>813669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1870</v>
+      </c>
+      <c r="B9" s="1">
+        <v>942292</v>
+      </c>
+      <c r="C9" s="1">
+        <v>419921</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45468</v>
+      </c>
+      <c r="E9" s="1">
+        <v>37393</v>
+      </c>
+      <c r="F9" s="1">
+        <v>33029</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1478103</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>942292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1880</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1164673</v>
+      </c>
+      <c r="C10" s="1">
+        <v>599495</v>
+      </c>
+      <c r="D10" s="1">
+        <v>56559</v>
+      </c>
+      <c r="E10" s="1">
+        <v>51980</v>
+      </c>
+      <c r="F10" s="1">
+        <v>38991</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1911698</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>1164673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1890</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1441216</v>
+      </c>
+      <c r="C11" s="1">
+        <v>838547</v>
+      </c>
+      <c r="D11" s="1">
+        <v>87050</v>
+      </c>
+      <c r="E11" s="1">
+        <v>88908</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51693</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2507414</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>1441216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1900</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1850093</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1166582</v>
+      </c>
+      <c r="D12" s="1">
+        <v>152999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200507</v>
+      </c>
+      <c r="F12" s="1">
+        <v>67021</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>3437202</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>1850093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1910</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2331542</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1634351</v>
+      </c>
+      <c r="D13" s="1">
+        <v>284041</v>
+      </c>
+      <c r="E13" s="1">
+        <v>430980</v>
+      </c>
+      <c r="F13" s="1">
+        <v>85969</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>4766883</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2331542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1920</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2284103</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2018356</v>
+      </c>
+      <c r="D14" s="1">
+        <v>469042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>732016</v>
+      </c>
+      <c r="F14" s="1">
+        <v>116531</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>5620048</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>2284103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1930</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1867312</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2560401</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1079129</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1265258</v>
+      </c>
+      <c r="F15" s="1">
+        <v>158346</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>6930446</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>2560401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1940</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1889924</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2698285</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1297634</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1394711</v>
+      </c>
+      <c r="F16" s="1">
+        <v>174441</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>7454995</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>2698285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1950</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1960101</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2738175</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1550849</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1451277</v>
+      </c>
+      <c r="F17" s="1">
+        <v>191555</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>7891957</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>2738175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1960</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1698281</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2627319</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1809578</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1424815</v>
+      </c>
+      <c r="F18" s="1">
+        <v>221991</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>7781984</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>2627319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1970</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1539233</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2602012</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1986473</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1471701</v>
+      </c>
+      <c r="F19" s="1">
+        <v>295443</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>7894862</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>2602012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1980</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1428285</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2230936</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1891325</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1168972</v>
+      </c>
+      <c r="F20" s="1">
+        <v>352121</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>7071639</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>2230936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1990</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1487536</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2300664</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1951598</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1203789</v>
+      </c>
+      <c r="F21" s="1">
+        <v>378977</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>7322564</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>2300664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1537195</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2465326</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2229379</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1332650</v>
+      </c>
+      <c r="F22" s="1">
+        <v>443728</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>8008278</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>2465326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1585873</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2504700</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2230722</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1385108</v>
+      </c>
+      <c r="F23" s="1">
+        <v>468730</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>8175133</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>2504700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="A1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,7 +1035,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -403,7 +1061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1800</v>
       </c>
@@ -430,12 +1088,8 @@
         <f>MAX(B2:F2)</f>
         <v>60515</v>
       </c>
-      <c r="I2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(H2)</f>
-        <v>=MAX(B2:F2)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1810</v>
       </c>
@@ -462,12 +1116,8 @@
         <f t="shared" ref="H3:H23" si="1">MAX(B3:F3)</f>
         <v>96373</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I23" ca="1" si="2">_xlfn.FORMULATEXT(H3)</f>
-        <v>=MAX(B3:F3)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1820</v>
       </c>
@@ -494,12 +1144,8 @@
         <f t="shared" si="1"/>
         <v>123706</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B4:F4)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1830</v>
       </c>
@@ -526,12 +1172,8 @@
         <f t="shared" si="1"/>
         <v>202589</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B5:F5)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1840</v>
       </c>
@@ -558,12 +1200,8 @@
         <f t="shared" si="1"/>
         <v>312710</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B6:F6)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1850</v>
       </c>
@@ -590,12 +1228,8 @@
         <f t="shared" si="1"/>
         <v>515547</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B7:F7)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1860</v>
       </c>
@@ -622,12 +1256,8 @@
         <f t="shared" si="1"/>
         <v>813669</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B8:F8)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1870</v>
       </c>
@@ -654,12 +1284,8 @@
         <f t="shared" si="1"/>
         <v>942292</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B9:F9)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1880</v>
       </c>
@@ -686,12 +1312,8 @@
         <f t="shared" si="1"/>
         <v>1164673</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B10:F10)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1890</v>
       </c>
@@ -718,12 +1340,8 @@
         <f t="shared" si="1"/>
         <v>1441216</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B11:F11)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1900</v>
       </c>
@@ -750,12 +1368,8 @@
         <f t="shared" si="1"/>
         <v>1850093</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B12:F12)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1910</v>
       </c>
@@ -782,12 +1396,8 @@
         <f t="shared" si="1"/>
         <v>2331542</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B13:F13)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1920</v>
       </c>
@@ -814,12 +1424,8 @@
         <f t="shared" si="1"/>
         <v>2284103</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B14:F14)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1930</v>
       </c>
@@ -846,12 +1452,8 @@
         <f t="shared" si="1"/>
         <v>2560401</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B15:F15)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1940</v>
       </c>
@@ -878,12 +1480,8 @@
         <f t="shared" si="1"/>
         <v>2698285</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B16:F16)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1950</v>
       </c>
@@ -910,12 +1508,8 @@
         <f t="shared" si="1"/>
         <v>2738175</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B17:F17)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1960</v>
       </c>
@@ -942,12 +1536,8 @@
         <f t="shared" si="1"/>
         <v>2627319</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B18:F18)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1970</v>
       </c>
@@ -974,12 +1564,8 @@
         <f t="shared" si="1"/>
         <v>2602012</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B19:F19)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1980</v>
       </c>
@@ -1006,12 +1592,8 @@
         <f t="shared" si="1"/>
         <v>2230936</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B20:F20)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1990</v>
       </c>
@@ -1038,12 +1620,8 @@
         <f t="shared" si="1"/>
         <v>2300664</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B21:F21)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1070,12 +1648,8 @@
         <f t="shared" si="1"/>
         <v>2465326</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B22:F22)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -1101,10 +1675,6 @@
       <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>2504700</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MAX(B23:F23)</v>
       </c>
     </row>
   </sheetData>
